--- a/data/Message.xlsx
+++ b/data/Message.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avinash\git\DACAutomation\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{ED12F436-62BD-43D4-B286-BDC7A97C3D2A}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
+  <xr:revisionPtr documentId="13_ncr:1_{4E705A51-F24C-40A1-B637-CC51643E7720}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
   <bookViews>
     <workbookView activeTab="2" windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{19FEE8EF-EF16-4820-8F17-4C62BFBEC3FD}" yWindow="-120"/>
   </bookViews>
@@ -87,52 +87,52 @@
     <t>Merged</t>
   </si>
   <si>
+    <t>External Notes</t>
+  </si>
+  <si>
+    <t>Testing 123</t>
+  </si>
+  <si>
+    <t>Testing 124</t>
+  </si>
+  <si>
+    <t>Testing 125</t>
+  </si>
+  <si>
+    <t>Testing 126</t>
+  </si>
+  <si>
+    <t>Testing 127</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>In Progress</t>
+  </si>
+  <si>
+    <t>Internal Notes</t>
+  </si>
+  <si>
+    <t>Testing 128</t>
+  </si>
+  <si>
+    <t>Testing 129</t>
+  </si>
+  <si>
+    <t>Deleted</t>
+  </si>
+  <si>
+    <t>Unable to process</t>
+  </si>
+  <si>
     <t>Suppressed</t>
   </si>
   <si>
-    <t>Unable to process</t>
-  </si>
-  <si>
-    <t>External Notes</t>
-  </si>
-  <si>
-    <t>Testing 123</t>
-  </si>
-  <si>
-    <t>Testing 124</t>
-  </si>
-  <si>
-    <t>Testing 125</t>
-  </si>
-  <si>
-    <t>Testing 126</t>
-  </si>
-  <si>
-    <t>Testing 127</t>
-  </si>
-  <si>
     <t>Not a duplicate</t>
   </si>
   <si>
-    <t>New</t>
-  </si>
-  <si>
-    <t>In Progress</t>
-  </si>
-  <si>
-    <t>Internal Notes</t>
-  </si>
-  <si>
-    <t>Testing 128</t>
-  </si>
-  <si>
-    <t>Testing 129</t>
-  </si>
-  <si>
-    <t>Deleted</t>
-  </si>
-  <si>
-    <t>9000223160</t>
+    <t>9000223167</t>
   </si>
 </sst>
 </file>
@@ -210,7 +210,7 @@
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -594,7 +594,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -613,10 +613,10 @@
         <v>15</v>
       </c>
       <c r="C1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -624,13 +624,13 @@
         <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -638,13 +638,13 @@
         <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -652,13 +652,13 @@
         <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -666,13 +666,13 @@
         <v>32</v>
       </c>
       <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
         <v>25</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -680,13 +680,13 @@
         <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -694,13 +694,13 @@
         <v>32</v>
       </c>
       <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s">
         <v>26</v>
       </c>
-      <c r="C7" t="s">
-        <v>29</v>
-      </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -708,13 +708,13 @@
         <v>32</v>
       </c>
       <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
         <v>27</v>
       </c>
-      <c r="C8" t="s">
-        <v>30</v>
-      </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/data/Message.xlsx
+++ b/data/Message.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avinash\git\DACAutomation\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{4E705A51-F24C-40A1-B637-CC51643E7720}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
+  <xr:revisionPtr documentId="13_ncr:1_{5F02DC64-7F81-4CDB-85D8-FF4C4B428926}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
   <bookViews>
     <workbookView activeTab="2" windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{19FEE8EF-EF16-4820-8F17-4C62BFBEC3FD}" yWindow="-120"/>
   </bookViews>
@@ -132,7 +132,7 @@
     <t>Not a duplicate</t>
   </si>
   <si>
-    <t>9000223167</t>
+    <t>9000223151</t>
   </si>
 </sst>
 </file>
